--- a/Propeller Packages/APC_13x6/CdvsAlpha_RPM8000.xlsx
+++ b/Propeller Packages/APC_13x6/CdvsAlpha_RPM8000.xlsx
@@ -118,54 +118,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP27"/>
+  <dimension ref="A1:AP34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="3.85546875" customWidth="true"/>
-    <col min="4" max="4" width="7.7109375" customWidth="true"/>
-    <col min="5" max="5" width="3.140625" customWidth="true"/>
-    <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="3.85546875" customWidth="true"/>
-    <col min="8" max="8" width="7.7109375" customWidth="true"/>
-    <col min="9" max="9" width="3.85546875" customWidth="true"/>
-    <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="3.85546875" customWidth="true"/>
-    <col min="12" max="12" width="7.7109375" customWidth="true"/>
-    <col min="13" max="13" width="3.85546875" customWidth="true"/>
-    <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="3.85546875" customWidth="true"/>
-    <col min="16" max="16" width="7.7109375" customWidth="true"/>
-    <col min="17" max="17" width="3.85546875" customWidth="true"/>
-    <col min="18" max="18" width="7.7109375" customWidth="true"/>
-    <col min="19" max="19" width="3.85546875" customWidth="true"/>
-    <col min="20" max="20" width="7.7109375" customWidth="true"/>
-    <col min="21" max="21" width="3.85546875" customWidth="true"/>
-    <col min="22" max="22" width="7.7109375" customWidth="true"/>
-    <col min="23" max="23" width="3.85546875" customWidth="true"/>
-    <col min="24" max="24" width="7.7109375" customWidth="true"/>
-    <col min="25" max="25" width="3.85546875" customWidth="true"/>
-    <col min="26" max="26" width="7.7109375" customWidth="true"/>
-    <col min="27" max="27" width="3.85546875" customWidth="true"/>
-    <col min="28" max="28" width="7.7109375" customWidth="true"/>
-    <col min="29" max="29" width="3.85546875" customWidth="true"/>
-    <col min="30" max="30" width="7.7109375" customWidth="true"/>
-    <col min="31" max="31" width="3.85546875" customWidth="true"/>
-    <col min="32" max="32" width="7.7109375" customWidth="true"/>
-    <col min="33" max="33" width="3.85546875" customWidth="true"/>
-    <col min="34" max="34" width="7.7109375" customWidth="true"/>
-    <col min="35" max="35" width="3.85546875" customWidth="true"/>
-    <col min="36" max="36" width="7.7109375" customWidth="true"/>
-    <col min="37" max="37" width="3.85546875" customWidth="true"/>
-    <col min="38" max="38" width="7.7109375" customWidth="true"/>
-    <col min="39" max="39" width="3.85546875" customWidth="true"/>
-    <col min="40" max="40" width="7.7109375" customWidth="true"/>
-    <col min="41" max="41" width="3.85546875" customWidth="true"/>
-    <col min="42" max="42" width="7.7109375" customWidth="true"/>
+    <col min="1" max="1" width="3.6640625" customWidth="true"/>
+    <col min="2" max="2" width="7.5546875" customWidth="true"/>
+    <col min="3" max="3" width="3.6640625" customWidth="true"/>
+    <col min="4" max="4" width="7.5546875" customWidth="true"/>
+    <col min="5" max="5" width="3.6640625" customWidth="true"/>
+    <col min="6" max="6" width="7.5546875" customWidth="true"/>
+    <col min="7" max="7" width="3.6640625" customWidth="true"/>
+    <col min="8" max="8" width="7.5546875" customWidth="true"/>
+    <col min="9" max="9" width="3.6640625" customWidth="true"/>
+    <col min="10" max="10" width="7.5546875" customWidth="true"/>
+    <col min="11" max="11" width="3.6640625" customWidth="true"/>
+    <col min="12" max="12" width="7.5546875" customWidth="true"/>
+    <col min="13" max="13" width="3.6640625" customWidth="true"/>
+    <col min="14" max="14" width="7.5546875" customWidth="true"/>
+    <col min="15" max="15" width="3.6640625" customWidth="true"/>
+    <col min="16" max="16" width="7.5546875" customWidth="true"/>
+    <col min="17" max="17" width="3.6640625" customWidth="true"/>
+    <col min="18" max="18" width="7.5546875" customWidth="true"/>
+    <col min="19" max="19" width="3.6640625" customWidth="true"/>
+    <col min="20" max="20" width="7.5546875" customWidth="true"/>
+    <col min="21" max="21" width="3.6640625" customWidth="true"/>
+    <col min="22" max="22" width="7.5546875" customWidth="true"/>
+    <col min="23" max="23" width="3.6640625" customWidth="true"/>
+    <col min="24" max="24" width="7.5546875" customWidth="true"/>
+    <col min="25" max="25" width="3.6640625" customWidth="true"/>
+    <col min="26" max="26" width="7.5546875" customWidth="true"/>
+    <col min="27" max="27" width="3.6640625" customWidth="true"/>
+    <col min="28" max="28" width="7.5546875" customWidth="true"/>
+    <col min="29" max="29" width="3.6640625" customWidth="true"/>
+    <col min="30" max="30" width="7.5546875" customWidth="true"/>
+    <col min="31" max="31" width="3.6640625" customWidth="true"/>
+    <col min="32" max="32" width="7.5546875" customWidth="true"/>
+    <col min="33" max="33" width="3.6640625" customWidth="true"/>
+    <col min="34" max="34" width="7.5546875" customWidth="true"/>
+    <col min="35" max="35" width="3.6640625" customWidth="true"/>
+    <col min="36" max="36" width="7.5546875" customWidth="true"/>
+    <col min="37" max="37" width="3.6640625" customWidth="true"/>
+    <col min="38" max="38" width="7.5546875" customWidth="true"/>
+    <col min="39" max="39" width="3.6640625" customWidth="true"/>
+    <col min="40" max="40" width="7.5546875" customWidth="true"/>
+    <col min="41" max="41" width="3.6640625" customWidth="true"/>
+    <col min="42" max="42" width="7.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -298,3090 +298,3992 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="B2" s="0">
-        <v>0.21096999999999999</v>
+        <v>0.22037999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="D2" s="0">
-        <v>0.20247000000000001</v>
+        <v>0.1764</v>
       </c>
       <c r="E2" s="0">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="F2" s="0">
-        <v>0.18801999999999999</v>
+        <v>0.14843999999999999</v>
       </c>
       <c r="G2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="H2" s="0">
-        <v>0.15673999999999999</v>
+        <v>0.14787</v>
       </c>
       <c r="I2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="J2" s="0">
-        <v>0.14435999999999999</v>
+        <v>0.14771000000000001</v>
       </c>
       <c r="K2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="L2" s="0">
-        <v>0.13714999999999999</v>
+        <v>0.14818999999999999</v>
       </c>
       <c r="M2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="N2" s="0">
-        <v>0.12409000000000001</v>
+        <v>0.15218000000000001</v>
       </c>
       <c r="O2" s="0">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="P2" s="0">
-        <v>0.12178</v>
+        <v>0.12137000000000001</v>
       </c>
       <c r="Q2" s="0">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="R2" s="0">
-        <v>0.12139999999999999</v>
+        <v>0.12631000000000001</v>
       </c>
       <c r="S2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="T2" s="0">
-        <v>0.12235</v>
+        <v>0.15432000000000001</v>
       </c>
       <c r="U2" s="0">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="V2" s="0">
-        <v>0.12475</v>
+        <v>0.14383000000000001</v>
       </c>
       <c r="W2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="X2" s="0">
-        <v>0.12311999999999999</v>
+        <v>0.15536</v>
       </c>
       <c r="Y2" s="0">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.12382</v>
+        <v>0.13152</v>
       </c>
       <c r="AA2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AB2" s="0">
-        <v>0.12037</v>
+        <v>0.157</v>
       </c>
       <c r="AC2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AD2" s="0">
-        <v>0.11887</v>
+        <v>0.15772</v>
       </c>
       <c r="AE2" s="0">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="AF2" s="0">
-        <v>0.12101000000000001</v>
+        <v>0.14604</v>
       </c>
       <c r="AG2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AH2" s="0">
-        <v>0.12046999999999999</v>
+        <v>0.16003999999999999</v>
       </c>
       <c r="AI2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.11686000000000001</v>
+        <v>0.1615</v>
       </c>
       <c r="AK2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AL2" s="0">
-        <v>0.12293999999999999</v>
+        <v>0.16372999999999999</v>
       </c>
       <c r="AM2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AN2" s="0">
-        <v>0.12307</v>
+        <v>0.16893</v>
       </c>
       <c r="AO2" s="0">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="AP2" s="0">
-        <v>0.17599000000000001</v>
+        <v>0.20821000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="B3" s="0">
-        <v>0.21077000000000001</v>
+        <v>0.21275</v>
       </c>
       <c r="C3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="D3" s="0">
-        <v>0.20494000000000001</v>
+        <v>0.16811000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="F3" s="0">
-        <v>0.18007000000000001</v>
+        <v>0.11853</v>
       </c>
       <c r="G3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="H3" s="0">
-        <v>0.15348999999999999</v>
+        <v>0.13261999999999999</v>
       </c>
       <c r="I3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="J3" s="0">
-        <v>0.13704</v>
+        <v>0.13242000000000001</v>
       </c>
       <c r="K3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="L3" s="0">
-        <v>0.12554000000000001</v>
+        <v>0.13199</v>
       </c>
       <c r="M3" s="0">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="N3" s="0">
-        <v>0.11088000000000001</v>
+        <v>0.11808</v>
       </c>
       <c r="O3" s="0">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="P3" s="0">
-        <v>0.10734</v>
+        <v>0.10415000000000001</v>
       </c>
       <c r="Q3" s="0">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="R3" s="0">
-        <v>0.10569000000000001</v>
+        <v>0.104</v>
       </c>
       <c r="S3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="T3" s="0">
-        <v>0.10546999999999999</v>
+        <v>0.14477000000000001</v>
       </c>
       <c r="U3" s="0">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="V3" s="0">
-        <v>0.10765</v>
+        <v>0.13081999999999999</v>
       </c>
       <c r="W3" s="0">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="X3" s="0">
-        <v>0.10652</v>
+        <v>0.13017000000000001</v>
       </c>
       <c r="Y3" s="0">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.10965999999999999</v>
+        <v>0.11398999999999999</v>
       </c>
       <c r="AA3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.11055</v>
+        <v>0.14421</v>
       </c>
       <c r="AC3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.11346000000000001</v>
+        <v>0.14487</v>
       </c>
       <c r="AE3" s="0">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.11108</v>
+        <v>0.13281000000000001</v>
       </c>
       <c r="AG3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.11088000000000001</v>
+        <v>0.14685999999999999</v>
       </c>
       <c r="AI3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.10835</v>
+        <v>0.14909</v>
       </c>
       <c r="AK3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AL3" s="0">
-        <v>0.11005</v>
+        <v>0.14968000000000001</v>
       </c>
       <c r="AM3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.11176</v>
+        <v>0.15248</v>
       </c>
       <c r="AO3" s="0">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.16836999999999999</v>
+        <v>0.19955999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="B4" s="0">
-        <v>0.20372999999999999</v>
+        <v>0.20388000000000001</v>
       </c>
       <c r="C4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="D4" s="0">
-        <v>0.19164999999999999</v>
+        <v>0.16083</v>
       </c>
       <c r="E4" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="F4" s="0">
-        <v>0.17291000000000001</v>
+        <v>0.10634</v>
       </c>
       <c r="G4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="H4" s="0">
-        <v>0.15453</v>
+        <v>0.11823</v>
       </c>
       <c r="I4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="J4" s="0">
-        <v>0.13482</v>
+        <v>0.11747</v>
       </c>
       <c r="K4" s="0">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="L4" s="0">
-        <v>0.1119</v>
+        <v>0.11597</v>
       </c>
       <c r="M4" s="0">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="N4" s="0">
-        <v>0.10075000000000001</v>
+        <v>0.10219</v>
       </c>
       <c r="O4" s="0">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="P4" s="0">
-        <v>0.093630000000000005</v>
+        <v>0.08498</v>
       </c>
       <c r="Q4" s="0">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="R4" s="0">
-        <v>0.090639999999999998</v>
+        <v>0.081369999999999998</v>
       </c>
       <c r="S4" s="0">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="T4" s="0">
-        <v>0.072999999999999995</v>
+        <v>0.12878000000000001</v>
       </c>
       <c r="U4" s="0">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="V4" s="0">
-        <v>0.091329999999999995</v>
+        <v>0.11276</v>
       </c>
       <c r="W4" s="0">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="X4" s="0">
-        <v>0.057930000000000002</v>
+        <v>0.11541999999999999</v>
       </c>
       <c r="Y4" s="0">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.092460000000000001</v>
+        <v>0.093289999999999998</v>
       </c>
       <c r="AA4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.093079999999999996</v>
+        <v>0.12936</v>
       </c>
       <c r="AC4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AD4" s="0">
-        <v>0.097989999999999994</v>
+        <v>0.13069</v>
       </c>
       <c r="AE4" s="0">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="AF4" s="0">
-        <v>0.10022</v>
+        <v>0.11798</v>
       </c>
       <c r="AG4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.10445</v>
+        <v>0.13408</v>
       </c>
       <c r="AI4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0.10371</v>
+        <v>0.13564000000000001</v>
       </c>
       <c r="AK4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AL4" s="0">
-        <v>0.10125000000000001</v>
+        <v>0.13832</v>
       </c>
       <c r="AM4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AN4" s="0">
-        <v>0.10299999999999999</v>
+        <v>0.14251</v>
       </c>
       <c r="AO4" s="0">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AP4" s="0">
-        <v>0.16095999999999999</v>
+        <v>0.19122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="B5" s="0">
-        <v>0.20291000000000001</v>
+        <v>0.20082</v>
       </c>
       <c r="C5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="D5" s="0">
-        <v>0.18404000000000001</v>
+        <v>0.1464</v>
       </c>
       <c r="E5" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="F5" s="0">
-        <v>0.16556000000000001</v>
+        <v>0.09196</v>
       </c>
       <c r="G5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="H5" s="0">
-        <v>0.16095999999999999</v>
+        <v>0.10398</v>
       </c>
       <c r="I5" s="0">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="J5" s="0">
-        <v>0.14785000000000001</v>
+        <v>0.10227</v>
       </c>
       <c r="K5" s="0">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="L5" s="0">
-        <v>0.10755000000000001</v>
+        <v>0.10097</v>
       </c>
       <c r="M5" s="0">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="N5" s="0">
-        <v>0.090529999999999999</v>
+        <v>0.083059999999999995</v>
       </c>
       <c r="O5" s="0">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="P5" s="0">
-        <v>0.08208</v>
+        <v>0.037859999999999998</v>
       </c>
       <c r="Q5" s="0">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="R5" s="0">
-        <v>0.077530000000000002</v>
+        <v>0.038100000000000002</v>
       </c>
       <c r="S5" s="0">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="T5" s="0">
-        <v>0.06062</v>
+        <v>0.11054</v>
       </c>
       <c r="U5" s="0">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="V5" s="0">
-        <v>0.075130000000000002</v>
+        <v>0.091929999999999998</v>
       </c>
       <c r="W5" s="0">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="X5" s="0">
-        <v>0.046600000000000003</v>
+        <v>0.095170000000000005</v>
       </c>
       <c r="Y5" s="0">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.076730000000000007</v>
+        <v>0.073520000000000002</v>
       </c>
       <c r="AA5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.075230000000000005</v>
+        <v>0.11846</v>
       </c>
       <c r="AC5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AD5" s="0">
-        <v>0.08183</v>
+        <v>0.11856</v>
       </c>
       <c r="AE5" s="0">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="AF5" s="0">
-        <v>0.083519999999999997</v>
+        <v>0.10663</v>
       </c>
       <c r="AG5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AH5" s="0">
-        <v>0.089499999999999996</v>
+        <v>0.1186</v>
       </c>
       <c r="AI5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AJ5" s="0">
-        <v>0.095549999999999996</v>
+        <v>0.11794</v>
       </c>
       <c r="AK5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AL5" s="0">
-        <v>0.096320000000000003</v>
+        <v>0.12211</v>
       </c>
       <c r="AM5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AN5" s="0">
-        <v>0.097170000000000006</v>
+        <v>0.12714</v>
       </c>
       <c r="AO5" s="0">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="AP5" s="0">
-        <v>0.15376000000000001</v>
+        <v>0.18315999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="B6" s="0">
-        <v>0.19697999999999999</v>
+        <v>0.19166</v>
       </c>
       <c r="C6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D6" s="0">
-        <v>0.17745</v>
+        <v>0.13730000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="F6" s="0">
-        <v>0.15905</v>
+        <v>0.062050000000000001</v>
       </c>
       <c r="G6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="H6" s="0">
-        <v>0.15306</v>
+        <v>0.088719999999999993</v>
       </c>
       <c r="I6" s="0">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="J6" s="0">
-        <v>0.13327</v>
+        <v>0.087870000000000004</v>
       </c>
       <c r="K6" s="0">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="L6" s="0">
-        <v>0.1053</v>
+        <v>0.079680000000000001</v>
       </c>
       <c r="M6" s="0">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="N6" s="0">
-        <v>0.085870000000000002</v>
+        <v>0.039190000000000003</v>
       </c>
       <c r="O6" s="0">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="P6" s="0">
-        <v>0.072749999999999995</v>
+        <v>0.031050000000000001</v>
       </c>
       <c r="Q6" s="0">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="R6" s="0">
-        <v>0.047849999999999997</v>
+        <v>0.030210000000000001</v>
       </c>
       <c r="S6" s="0">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="T6" s="0">
-        <v>0.048469999999999999</v>
+        <v>0.090759999999999993</v>
       </c>
       <c r="U6" s="0">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="V6" s="0">
-        <v>0.057389999999999997</v>
+        <v>0.05074</v>
       </c>
       <c r="W6" s="0">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="X6" s="0">
-        <v>0.024070000000000001</v>
+        <v>0.07238</v>
       </c>
       <c r="Y6" s="0">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.030849999999999999</v>
+        <v>0.035159999999999997</v>
       </c>
       <c r="AA6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.060699999999999997</v>
+        <v>0.099049999999999999</v>
       </c>
       <c r="AC6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AD6" s="0">
-        <v>0.062300000000000001</v>
+        <v>0.10332</v>
       </c>
       <c r="AE6" s="0">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.067540000000000003</v>
+        <v>0.085830000000000004</v>
       </c>
       <c r="AG6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.071819999999999995</v>
+        <v>0.10353</v>
       </c>
       <c r="AI6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AJ6" s="0">
-        <v>0.068159999999999998</v>
+        <v>0.10616</v>
       </c>
       <c r="AK6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AL6" s="0">
-        <v>0.086249999999999993</v>
+        <v>0.10575</v>
       </c>
       <c r="AM6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AN6" s="0">
-        <v>0.091569999999999999</v>
+        <v>0.11133999999999999</v>
       </c>
       <c r="AO6" s="0">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.14680000000000001</v>
+        <v>0.17535000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="B7" s="0">
-        <v>0.17985000000000001</v>
+        <v>0.17036999999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="D7" s="0">
-        <v>0.17349000000000001</v>
+        <v>0.1285</v>
       </c>
       <c r="E7" s="0">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="F7" s="0">
-        <v>0.13938999999999999</v>
+        <v>0.05994</v>
       </c>
       <c r="G7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="H7" s="0">
-        <v>0.14502000000000001</v>
+        <v>0.050360000000000002</v>
       </c>
       <c r="I7" s="0">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="J7" s="0">
-        <v>0.12081</v>
+        <v>0.045370000000000001</v>
       </c>
       <c r="K7" s="0">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="L7" s="0">
-        <v>0.086540000000000006</v>
+        <v>0.041829999999999999</v>
       </c>
       <c r="M7" s="0">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="N7" s="0">
-        <v>0.0659</v>
+        <v>0.032349999999999997</v>
       </c>
       <c r="O7" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="P7" s="0">
-        <v>0.034790000000000001</v>
+        <v>0.026620000000000001</v>
       </c>
       <c r="Q7" s="0">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="R7" s="0">
-        <v>0.034700000000000002</v>
+        <v>0.025690000000000001</v>
       </c>
       <c r="S7" s="0">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="T7" s="0">
-        <v>0.026409999999999999</v>
+        <v>0.04471</v>
       </c>
       <c r="U7" s="0">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="V7" s="0">
-        <v>0.029420000000000002</v>
+        <v>0.031210000000000002</v>
       </c>
       <c r="W7" s="0">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="X7" s="0">
-        <v>0.020879999999999999</v>
+        <v>0.03397</v>
       </c>
       <c r="Y7" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.024490000000000001</v>
+        <v>0.027</v>
       </c>
       <c r="AA7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.047379999999999999</v>
+        <v>0.077289999999999998</v>
       </c>
       <c r="AC7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AD7" s="0">
-        <v>0.043979999999999998</v>
+        <v>0.082549999999999998</v>
       </c>
       <c r="AE7" s="0">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AF7" s="0">
-        <v>0.053319999999999999</v>
+        <v>0.056660000000000002</v>
       </c>
       <c r="AG7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.057639999999999997</v>
+        <v>0.085599999999999996</v>
       </c>
       <c r="AI7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AJ7" s="0">
-        <v>0.052409999999999998</v>
+        <v>0.092850000000000002</v>
       </c>
       <c r="AK7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AL7" s="0">
-        <v>0.070529999999999995</v>
+        <v>0.09436</v>
       </c>
       <c r="AM7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AN7" s="0">
-        <v>0.082460000000000006</v>
+        <v>0.097530000000000006</v>
       </c>
       <c r="AO7" s="0">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AP7" s="0">
-        <v>0.14022000000000001</v>
+        <v>0.16774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.17466000000000001</v>
+        <v>0.16153999999999999</v>
       </c>
       <c r="C8" s="0">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="D8" s="0">
-        <v>0.14926</v>
+        <v>0.11953</v>
       </c>
       <c r="E8" s="0">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F8" s="0">
-        <v>0.11634</v>
+        <v>0.054480000000000001</v>
       </c>
       <c r="G8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="H8" s="0">
-        <v>0.13269</v>
+        <v>0.044830000000000002</v>
       </c>
       <c r="I8" s="0">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="J8" s="0">
-        <v>0.1094</v>
+        <v>0.039750000000000001</v>
       </c>
       <c r="K8" s="0">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="L8" s="0">
-        <v>0.05373</v>
+        <v>0.036409999999999998</v>
       </c>
       <c r="M8" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="N8" s="0">
-        <v>0.04512</v>
+        <v>0.028670000000000001</v>
       </c>
       <c r="O8" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="P8" s="0">
-        <v>0.030630000000000001</v>
+        <v>0.02343</v>
       </c>
       <c r="Q8" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="R8" s="0">
-        <v>0.025090000000000001</v>
+        <v>0.02239</v>
       </c>
       <c r="S8" s="0">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="T8" s="0">
-        <v>0.022089999999999999</v>
+        <v>0.031060000000000001</v>
       </c>
       <c r="U8" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="V8" s="0">
-        <v>0.025180000000000001</v>
+        <v>0.02547</v>
       </c>
       <c r="W8" s="0">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="X8" s="0">
-        <v>0.017500000000000002</v>
+        <v>0.0258</v>
       </c>
       <c r="Y8" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.020289999999999999</v>
+        <v>0.021909999999999999</v>
       </c>
       <c r="AA8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.02512</v>
+        <v>0.038359999999999998</v>
       </c>
       <c r="AC8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AD8" s="0">
-        <v>0.02623</v>
+        <v>0.046940000000000003</v>
       </c>
       <c r="AE8" s="0">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="AF8" s="0">
-        <v>0.02809</v>
+        <v>0.03279</v>
       </c>
       <c r="AG8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.029989999999999999</v>
+        <v>0.053269999999999998</v>
       </c>
       <c r="AI8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0.020639999999999999</v>
+        <v>0.068839999999999999</v>
       </c>
       <c r="AK8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AL8" s="0">
-        <v>0.057279999999999998</v>
+        <v>0.074149999999999994</v>
       </c>
       <c r="AM8" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AN8" s="0">
-        <v>0.038730000000000001</v>
+        <v>0.063390000000000002</v>
       </c>
       <c r="AO8" s="0">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="AP8" s="0">
-        <v>0.13447999999999999</v>
+        <v>0.16034999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="B9" s="0">
-        <v>0.16966999999999999</v>
+        <v>0.15167</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D9" s="0">
-        <v>0.1487</v>
+        <v>0.091069999999999998</v>
       </c>
       <c r="E9" s="0">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F9" s="0">
-        <v>0.090160000000000004</v>
+        <v>0.051560000000000002</v>
       </c>
       <c r="G9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="H9" s="0">
-        <v>0.12182999999999999</v>
+        <v>0.040890000000000003</v>
       </c>
       <c r="I9" s="0">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="J9" s="0">
-        <v>0.069010000000000002</v>
+        <v>0.036339999999999997</v>
       </c>
       <c r="K9" s="0">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="L9" s="0">
-        <v>0.054129999999999998</v>
+        <v>0.03261</v>
       </c>
       <c r="M9" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="N9" s="0">
-        <v>0.040629999999999999</v>
+        <v>0.02581</v>
       </c>
       <c r="O9" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="P9" s="0">
-        <v>0.026519999999999998</v>
+        <v>0.021499999999999998</v>
       </c>
       <c r="Q9" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="R9" s="0">
-        <v>0.021659999999999999</v>
+        <v>0.02018</v>
       </c>
       <c r="S9" s="0">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="T9" s="0">
-        <v>0.01968</v>
+        <v>0.025360000000000001</v>
       </c>
       <c r="U9" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="V9" s="0">
-        <v>0.02129</v>
+        <v>0.02154</v>
       </c>
       <c r="W9" s="0">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="X9" s="0">
-        <v>0.01559</v>
+        <v>0.021579999999999999</v>
       </c>
       <c r="Y9" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.017469999999999999</v>
+        <v>0.019029999999999998</v>
       </c>
       <c r="AA9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.021000000000000001</v>
+        <v>0.028250000000000001</v>
       </c>
       <c r="AC9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.022120000000000001</v>
+        <v>0.029409999999999999</v>
       </c>
       <c r="AE9" s="0">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="AF9" s="0">
-        <v>0.02307</v>
+        <v>0.02445</v>
       </c>
       <c r="AG9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AH9" s="0">
-        <v>0.025669999999999998</v>
+        <v>0.035270000000000003</v>
       </c>
       <c r="AI9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AJ9" s="0">
-        <v>0.01409</v>
+        <v>0.038289999999999998</v>
       </c>
       <c r="AK9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AL9" s="0">
-        <v>0.030960000000000001</v>
+        <v>0.04419</v>
       </c>
       <c r="AM9" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AN9" s="0">
-        <v>0.033369999999999997</v>
+        <v>0.040669999999999998</v>
       </c>
       <c r="AO9" s="0">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AP9" s="0">
-        <v>0.1303</v>
+        <v>0.15315000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="B10" s="0">
-        <v>0.16439999999999999</v>
+        <v>0.14080999999999999</v>
       </c>
       <c r="C10" s="0">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D10" s="0">
-        <v>0.10881</v>
+        <v>0.076999999999999999</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F10" s="0">
-        <v>0.094219999999999998</v>
+        <v>0.050639999999999998</v>
       </c>
       <c r="G10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="H10" s="0">
-        <v>0.11182</v>
+        <v>0.03807</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J10" s="0">
-        <v>0.063299999999999995</v>
+        <v>0.029649999999999999</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="L10" s="0">
-        <v>0.052089999999999997</v>
+        <v>0.02988</v>
       </c>
       <c r="M10" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="N10" s="0">
-        <v>0.036580000000000001</v>
+        <v>0.023689999999999999</v>
       </c>
       <c r="O10" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="P10" s="0">
-        <v>0.02392</v>
+        <v>0.019949999999999999</v>
       </c>
       <c r="Q10" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="R10" s="0">
-        <v>0.020150000000000001</v>
+        <v>0.018499999999999999</v>
       </c>
       <c r="S10" s="0">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="T10" s="0">
-        <v>0.017219999999999999</v>
+        <v>0.0218</v>
       </c>
       <c r="U10" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="V10" s="0">
-        <v>0.018270000000000002</v>
+        <v>0.019009999999999999</v>
       </c>
       <c r="W10" s="0">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="X10" s="0">
-        <v>0.014290000000000001</v>
+        <v>0.018890000000000001</v>
       </c>
       <c r="Y10" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.01542</v>
+        <v>0.01704</v>
       </c>
       <c r="AA10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.017829999999999999</v>
+        <v>0.022929999999999999</v>
       </c>
       <c r="AC10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AD10" s="0">
-        <v>0.01848</v>
+        <v>0.023539999999999999</v>
       </c>
       <c r="AE10" s="0">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.019400000000000001</v>
+        <v>0.020629999999999999</v>
       </c>
       <c r="AG10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AH10" s="0">
-        <v>0.020820000000000002</v>
+        <v>0.02665</v>
       </c>
       <c r="AI10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0.0096500000000000006</v>
+        <v>0.028979999999999999</v>
       </c>
       <c r="AK10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AL10" s="0">
-        <v>0.027230000000000001</v>
+        <v>0.033079999999999998</v>
       </c>
       <c r="AM10" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AN10" s="0">
-        <v>0.02998</v>
+        <v>0.032079999999999998</v>
       </c>
       <c r="AO10" s="0">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="AP10" s="0">
-        <v>0.12766</v>
+        <v>0.1462</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="B11" s="0">
-        <v>0.14990000000000001</v>
+        <v>0.12651000000000001</v>
       </c>
       <c r="C11" s="0">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D11" s="0">
-        <v>0.11352</v>
+        <v>0.072620000000000004</v>
       </c>
       <c r="E11" s="0">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F11" s="0">
-        <v>0.098680000000000004</v>
+        <v>0.050369999999999998</v>
       </c>
       <c r="G11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="H11" s="0">
-        <v>0.078049999999999994</v>
+        <v>0.036839999999999998</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J11" s="0">
-        <v>0.061350000000000002</v>
+        <v>0.029159999999999999</v>
       </c>
       <c r="K11" s="0">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="L11" s="0">
-        <v>0.046960000000000002</v>
+        <v>0.027900000000000001</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="N11" s="0">
-        <v>0.031019999999999999</v>
+        <v>0.022169999999999999</v>
       </c>
       <c r="O11" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="P11" s="0">
-        <v>0.02053</v>
+        <v>0.018700000000000001</v>
       </c>
       <c r="Q11" s="0">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R11" s="0">
-        <v>0.0178</v>
+        <v>0.017260000000000001</v>
       </c>
       <c r="S11" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="T11" s="0">
-        <v>0.01576</v>
+        <v>0.0177</v>
       </c>
       <c r="U11" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="V11" s="0">
-        <v>0.016129999999999999</v>
+        <v>0.0172</v>
       </c>
       <c r="W11" s="0">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="X11" s="0">
-        <v>0.014239999999999999</v>
+        <v>0.016969999999999999</v>
       </c>
       <c r="Y11" s="0">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.01409</v>
+        <v>0.015650000000000001</v>
       </c>
       <c r="AA11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AB11" s="0">
-        <v>0.015559999999999999</v>
+        <v>0.019359999999999999</v>
       </c>
       <c r="AC11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.015650000000000001</v>
+        <v>0.019879999999999998</v>
       </c>
       <c r="AE11" s="0">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="AF11" s="0">
-        <v>0.01643</v>
+        <v>0.01806</v>
       </c>
       <c r="AG11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AH11" s="0">
-        <v>0.017270000000000001</v>
+        <v>0.02164</v>
       </c>
       <c r="AI11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0.0064200000000000004</v>
+        <v>0.023369999999999999</v>
       </c>
       <c r="AK11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AL11" s="0">
-        <v>0.022550000000000001</v>
+        <v>0.0258</v>
       </c>
       <c r="AM11" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AN11" s="0">
-        <v>0.0286</v>
+        <v>0.026200000000000001</v>
       </c>
       <c r="AO11" s="0">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="AP11" s="0">
-        <v>0.12634000000000001</v>
+        <v>0.13963999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B12" s="0">
-        <v>0.12295</v>
+        <v>0.11456</v>
       </c>
       <c r="C12" s="0">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D12" s="0">
-        <v>0.11568000000000001</v>
+        <v>0.070980000000000001</v>
       </c>
       <c r="E12" s="0">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="F12" s="0">
-        <v>0.1052</v>
+        <v>0.05074</v>
       </c>
       <c r="G12" s="0">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="H12" s="0">
-        <v>0.078880000000000006</v>
+        <v>0.036519999999999997</v>
       </c>
       <c r="I12" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J12" s="0">
-        <v>0.060409999999999998</v>
+        <v>0.028910000000000002</v>
       </c>
       <c r="K12" s="0">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="L12" s="0">
-        <v>0.035520000000000003</v>
+        <v>0.02664</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="N12" s="0">
-        <v>0.027660000000000001</v>
+        <v>0.021090000000000001</v>
       </c>
       <c r="O12" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P12" s="0">
-        <v>0.020240000000000001</v>
+        <v>0.01781</v>
       </c>
       <c r="Q12" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R12" s="0">
-        <v>0.01745</v>
+        <v>0.016250000000000001</v>
       </c>
       <c r="S12" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="T12" s="0">
+        <v>0.016330000000000001</v>
+      </c>
+      <c r="U12" s="0">
+        <v>-3</v>
+      </c>
+      <c r="V12" s="0">
+        <v>0.01585</v>
+      </c>
+      <c r="W12" s="0">
+        <v>-3</v>
+      </c>
+      <c r="X12" s="0">
         <v>0.01567</v>
       </c>
-      <c r="U12" s="0">
-        <v>0</v>
-      </c>
-      <c r="V12" s="0">
-        <v>0.01477</v>
-      </c>
-      <c r="W12" s="0">
-        <v>2</v>
-      </c>
-      <c r="X12" s="0">
-        <v>0.014319999999999999</v>
-      </c>
       <c r="Y12" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.014069999999999999</v>
+        <v>0.01455</v>
       </c>
       <c r="AA12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.01414</v>
+        <v>0.017270000000000001</v>
       </c>
       <c r="AC12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AD12" s="0">
-        <v>0.01435</v>
+        <v>0.017520000000000001</v>
       </c>
       <c r="AE12" s="0">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AF12" s="0">
-        <v>0.01508</v>
+        <v>0.016330000000000001</v>
       </c>
       <c r="AG12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AH12" s="0">
-        <v>0.016080000000000001</v>
+        <v>0.01883</v>
       </c>
       <c r="AI12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AJ12" s="0">
-        <v>0.0047600000000000003</v>
+        <v>0.020029999999999999</v>
       </c>
       <c r="AK12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AL12" s="0">
-        <v>0.020959999999999999</v>
+        <v>0.021870000000000001</v>
       </c>
       <c r="AM12" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AN12" s="0">
-        <v>0.02928</v>
+        <v>0.023179999999999999</v>
       </c>
       <c r="AO12" s="0">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AP12" s="0">
-        <v>0.12620000000000001</v>
+        <v>0.13395000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="B13" s="0">
-        <v>0.11101999999999999</v>
+        <v>0.1055</v>
       </c>
       <c r="C13" s="0">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D13" s="0">
-        <v>0.1208</v>
+        <v>0.070059999999999997</v>
       </c>
       <c r="E13" s="0">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="F13" s="0">
-        <v>0.11089</v>
+        <v>0.050090000000000003</v>
       </c>
       <c r="G13" s="0">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="H13" s="0">
-        <v>0.087459999999999996</v>
+        <v>0.036990000000000002</v>
       </c>
       <c r="I13" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>0.064449999999999993</v>
+        <v>0.02896</v>
       </c>
       <c r="K13" s="0">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="L13" s="0">
-        <v>0.049369999999999997</v>
+        <v>0.0258</v>
       </c>
       <c r="M13" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N13" s="0">
-        <v>0.026800000000000001</v>
+        <v>0.020330000000000001</v>
       </c>
       <c r="O13" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P13" s="0">
-        <v>0.019709999999999998</v>
+        <v>0.017149999999999999</v>
       </c>
       <c r="Q13" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R13" s="0">
-        <v>0.017309999999999999</v>
+        <v>0.01562</v>
       </c>
       <c r="S13" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="T13" s="0">
-        <v>0.01559</v>
+        <v>0.015350000000000001</v>
       </c>
       <c r="U13" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V13" s="0">
-        <v>0.01468</v>
+        <v>0.014840000000000001</v>
       </c>
       <c r="W13" s="0">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="X13" s="0">
-        <v>0.014540000000000001</v>
+        <v>0.014619999999999999</v>
       </c>
       <c r="Y13" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.014160000000000001</v>
+        <v>0.013690000000000001</v>
       </c>
       <c r="AA13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AB13" s="0">
-        <v>0.014120000000000001</v>
+        <v>0.01575</v>
       </c>
       <c r="AC13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.0144</v>
+        <v>0.015959999999999999</v>
       </c>
       <c r="AE13" s="0">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.01485</v>
+        <v>0.01498</v>
       </c>
       <c r="AG13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AH13" s="0">
-        <v>0.015890000000000001</v>
+        <v>0.016990000000000002</v>
       </c>
       <c r="AI13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AJ13" s="0">
-        <v>0.0050000000000000001</v>
+        <v>0.01789</v>
       </c>
       <c r="AK13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AL13" s="0">
-        <v>0.020670000000000001</v>
+        <v>0.01933</v>
       </c>
       <c r="AM13" s="0">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="AN13" s="0">
-        <v>0.026610000000000002</v>
+        <v>0.021010000000000001</v>
       </c>
       <c r="AO13" s="0">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AP13" s="0">
-        <v>0.12716</v>
+        <v>0.12984000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B14" s="0">
-        <v>0.1096</v>
+        <v>0.099599999999999994</v>
       </c>
       <c r="C14" s="0">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.12634000000000001</v>
+        <v>0.068909999999999999</v>
       </c>
       <c r="E14" s="0">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="0">
-        <v>0.11663999999999999</v>
+        <v>0.050520000000000002</v>
       </c>
       <c r="G14" s="0">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="H14" s="0">
-        <v>0.11217000000000001</v>
+        <v>0.035810000000000002</v>
       </c>
       <c r="I14" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="0">
-        <v>0.076109999999999997</v>
+        <v>0.028719999999999999</v>
       </c>
       <c r="K14" s="0">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="L14" s="0">
-        <v>0.14273</v>
+        <v>0.024590000000000001</v>
       </c>
       <c r="M14" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="0">
-        <v>0.025159999999999998</v>
+        <v>0.019560000000000001</v>
       </c>
       <c r="O14" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0.01984</v>
+        <v>0.016760000000000001</v>
       </c>
       <c r="Q14" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="0">
-        <v>0.01711</v>
+        <v>0.01506</v>
       </c>
       <c r="S14" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T14" s="0">
-        <v>0.01576</v>
+        <v>0.01464</v>
       </c>
       <c r="U14" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V14" s="0">
+        <v>0.014080000000000001</v>
+      </c>
+      <c r="W14" s="0">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="0">
+        <v>0.013809999999999999</v>
+      </c>
+      <c r="Y14" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="0">
+        <v>0.01285</v>
+      </c>
+      <c r="AA14" s="0">
+        <v>-2</v>
+      </c>
+      <c r="AB14" s="0">
+        <v>0.01461</v>
+      </c>
+      <c r="AC14" s="0">
+        <v>-2</v>
+      </c>
+      <c r="AD14" s="0">
         <v>0.01469</v>
       </c>
-      <c r="W14" s="0">
-        <v>4</v>
-      </c>
-      <c r="X14" s="0">
-        <v>0.01515</v>
-      </c>
-      <c r="Y14" s="0">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="0">
-        <v>0.0144</v>
-      </c>
-      <c r="AA14" s="0">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="0">
-        <v>0.014200000000000001</v>
-      </c>
-      <c r="AC14" s="0">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="0">
-        <v>0.014409999999999999</v>
-      </c>
       <c r="AE14" s="0">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF14" s="0">
-        <v>0.01487</v>
+        <v>0.01389</v>
       </c>
       <c r="AG14" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AH14" s="0">
-        <v>0.01562</v>
+        <v>0.01546</v>
       </c>
       <c r="AI14" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AJ14" s="0">
-        <v>0.0050499999999999998</v>
+        <v>0.016250000000000001</v>
       </c>
       <c r="AK14" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AL14" s="0">
-        <v>0.019779999999999999</v>
+        <v>0.01753</v>
       </c>
       <c r="AM14" s="0">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AN14" s="0">
-        <v>0.026030000000000001</v>
+        <v>0.018950000000000002</v>
       </c>
       <c r="AO14" s="0">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AP14" s="0">
-        <v>0.12919</v>
+        <v>0.12726000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15" s="0">
-        <v>0.11452</v>
+        <v>0.097220000000000001</v>
       </c>
       <c r="C15" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0.13457</v>
+        <v>0.068820000000000006</v>
       </c>
       <c r="E15" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0">
-        <v>0.12156</v>
+        <v>0.051499999999999997</v>
       </c>
       <c r="G15" s="0">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="0">
-        <v>0.11913</v>
+        <v>0.034599999999999999</v>
       </c>
       <c r="I15" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15" s="0">
-        <v>0.092990000000000003</v>
+        <v>0.028729999999999999</v>
       </c>
       <c r="K15" s="0">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="0">
-        <v>0.15142</v>
+        <v>0.02359</v>
       </c>
       <c r="M15" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.024129999999999999</v>
+        <v>0.019390000000000001</v>
       </c>
       <c r="O15" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" s="0">
-        <v>0.020719999999999999</v>
+        <v>0.015869999999999999</v>
       </c>
       <c r="Q15" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R15" s="0">
-        <v>0.017510000000000001</v>
+        <v>0.01436</v>
       </c>
       <c r="S15" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>0.016150000000000001</v>
+        <v>0.013950000000000001</v>
       </c>
       <c r="U15" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V15" s="0">
-        <v>0.01487</v>
+        <v>0.013310000000000001</v>
       </c>
       <c r="W15" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>0.01651</v>
+        <v>0.01303</v>
       </c>
       <c r="Y15" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.01506</v>
+        <v>0.01243</v>
       </c>
       <c r="AA15" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="0">
-        <v>0.014409999999999999</v>
+        <v>0.01278</v>
       </c>
       <c r="AC15" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.01464</v>
+        <v>0.01375</v>
       </c>
       <c r="AE15" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.01502</v>
+        <v>0.01268</v>
       </c>
       <c r="AG15" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AH15" s="0">
-        <v>0.015699999999999999</v>
+        <v>0.014239999999999999</v>
       </c>
       <c r="AI15" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0.0052100000000000002</v>
+        <v>0.01482</v>
       </c>
       <c r="AK15" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AL15" s="0">
-        <v>0.01882</v>
+        <v>0.015789999999999999</v>
       </c>
       <c r="AM15" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0.02673</v>
+        <v>0.017350000000000001</v>
       </c>
       <c r="AO15" s="0">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AP15" s="0">
-        <v>0.13217000000000001</v>
+        <v>0.12598999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>0.11656</v>
+        <v>0.097030000000000005</v>
       </c>
       <c r="C16" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" s="0">
-        <v>0.15776999999999999</v>
+        <v>0.069589999999999999</v>
       </c>
       <c r="E16" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="0">
-        <v>0.1288</v>
+        <v>0.05212</v>
       </c>
       <c r="G16" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0">
-        <v>0.12567999999999999</v>
+        <v>0.038330000000000003</v>
       </c>
       <c r="I16" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J16" s="0">
-        <v>0.14086000000000001</v>
+        <v>0.030020000000000002</v>
       </c>
       <c r="K16" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>0.16020000000000001</v>
+        <v>0.02402</v>
       </c>
       <c r="M16" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" s="0">
-        <v>0.02445</v>
+        <v>0.018419999999999999</v>
       </c>
       <c r="O16" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P16" s="0">
-        <v>0.022450000000000001</v>
+        <v>0.016420000000000001</v>
       </c>
       <c r="Q16" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R16" s="0">
-        <v>0.01866</v>
+        <v>0.01485</v>
       </c>
       <c r="S16" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" s="0">
-        <v>0.017440000000000001</v>
+        <v>0.01338</v>
       </c>
       <c r="U16" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V16" s="0">
-        <v>0.015469999999999999</v>
+        <v>0.01282</v>
       </c>
       <c r="W16" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X16" s="0">
-        <v>0.01823</v>
+        <v>0.01256</v>
       </c>
       <c r="Y16" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="0">
-        <v>0.016459999999999999</v>
+        <v>0.012930000000000001</v>
       </c>
       <c r="AA16" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="0">
-        <v>0.015129999999999999</v>
+        <v>0.01243</v>
       </c>
       <c r="AC16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.01536</v>
+        <v>0.012699999999999999</v>
       </c>
       <c r="AE16" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="0">
-        <v>0.015709999999999998</v>
+        <v>0.012659999999999999</v>
       </c>
       <c r="AG16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>0.016289999999999999</v>
+        <v>0.01289</v>
       </c>
       <c r="AI16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="0">
-        <v>0.0060000000000000001</v>
+        <v>0.01342</v>
       </c>
       <c r="AK16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="0">
-        <v>0.01917</v>
+        <v>0.01438</v>
       </c>
       <c r="AM16" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="0">
-        <v>0.029159999999999998</v>
+        <v>0.01755</v>
       </c>
       <c r="AO16" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="0">
-        <v>0.13605999999999999</v>
+        <v>0.12587000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="0">
-        <v>0.13056000000000001</v>
+        <v>0.098919999999999994</v>
       </c>
       <c r="C17" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D17" s="0">
-        <v>0.16527</v>
+        <v>0.072109999999999994</v>
       </c>
       <c r="E17" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F17" s="0">
-        <v>0.13625999999999999</v>
+        <v>0.053769999999999998</v>
       </c>
       <c r="G17" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H17" s="0">
-        <v>0.13170000000000001</v>
+        <v>0.037179999999999998</v>
       </c>
       <c r="I17" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J17" s="0">
-        <v>0.14915999999999999</v>
+        <v>0.032500000000000001</v>
       </c>
       <c r="K17" s="0">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L17" s="0">
-        <v>0.16916999999999999</v>
+        <v>0.02401</v>
       </c>
       <c r="M17" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N17" s="0">
-        <v>0.026339999999999999</v>
+        <v>0.018919999999999999</v>
       </c>
       <c r="O17" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P17" s="0">
-        <v>0.024580000000000001</v>
+        <v>0.017100000000000001</v>
       </c>
       <c r="Q17" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R17" s="0">
-        <v>0.02035</v>
+        <v>0.01554</v>
       </c>
       <c r="S17" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T17" s="0">
-        <v>0.019099999999999999</v>
+        <v>0.01387</v>
       </c>
       <c r="U17" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" s="0">
-        <v>0.01677</v>
+        <v>0.013299999999999999</v>
       </c>
       <c r="W17" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X17" s="0">
-        <v>0.0201</v>
+        <v>0.013050000000000001</v>
       </c>
       <c r="Y17" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="0">
-        <v>0.018200000000000001</v>
+        <v>0.013679999999999999</v>
       </c>
       <c r="AA17" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="0">
-        <v>0.016590000000000001</v>
+        <v>0.012930000000000001</v>
       </c>
       <c r="AC17" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="0">
-        <v>0.016879999999999999</v>
+        <v>0.01247</v>
       </c>
       <c r="AE17" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="0">
-        <v>0.0172</v>
+        <v>0.01316</v>
       </c>
       <c r="AG17" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="0">
-        <v>0.017760000000000001</v>
+        <v>0.01303</v>
       </c>
       <c r="AI17" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="0">
-        <v>0.0073000000000000001</v>
+        <v>0.013650000000000001</v>
       </c>
       <c r="AK17" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.020500000000000001</v>
+        <v>0.01465</v>
       </c>
       <c r="AM17" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AN17" s="0">
-        <v>0.031960000000000002</v>
+        <v>0.017909999999999999</v>
       </c>
       <c r="AO17" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="0">
-        <v>0.14082</v>
+        <v>0.12684999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" s="0">
-        <v>0.13669999999999999</v>
+        <v>0.10206999999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D18" s="0">
-        <v>0.17286000000000001</v>
+        <v>0.074740000000000001</v>
       </c>
       <c r="E18" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" s="0">
-        <v>0.14377000000000001</v>
+        <v>0.059920000000000001</v>
       </c>
       <c r="G18" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H18" s="0">
-        <v>0.13616</v>
+        <v>0.040820000000000002</v>
       </c>
       <c r="I18" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J18" s="0">
-        <v>0.15761</v>
+        <v>0.034660000000000003</v>
       </c>
       <c r="K18" s="0">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L18" s="0">
-        <v>0.17854</v>
+        <v>0.023140000000000001</v>
       </c>
       <c r="M18" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N18" s="0">
-        <v>0.02826</v>
+        <v>0.01968</v>
       </c>
       <c r="O18" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P18" s="0">
-        <v>0.026980000000000001</v>
+        <v>0.018079999999999999</v>
       </c>
       <c r="Q18" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R18" s="0">
-        <v>0.02232</v>
+        <v>0.01652</v>
       </c>
       <c r="S18" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T18" s="0">
-        <v>0.021069999999999998</v>
+        <v>0.01457</v>
       </c>
       <c r="U18" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V18" s="0">
-        <v>0.018460000000000001</v>
+        <v>0.014019999999999999</v>
       </c>
       <c r="W18" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X18" s="0">
-        <v>0.022100000000000002</v>
+        <v>0.013780000000000001</v>
       </c>
       <c r="Y18" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z18" s="0">
-        <v>0.020140000000000002</v>
+        <v>0.014760000000000001</v>
       </c>
       <c r="AA18" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="0">
-        <v>0.018339999999999999</v>
+        <v>0.0137</v>
       </c>
       <c r="AC18" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="0">
-        <v>0.018700000000000001</v>
+        <v>0.01298</v>
       </c>
       <c r="AE18" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="0">
-        <v>0.019040000000000001</v>
+        <v>0.013899999999999999</v>
       </c>
       <c r="AG18" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH18" s="0">
-        <v>0.019699999999999999</v>
+        <v>0.013520000000000001</v>
       </c>
       <c r="AI18" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0.00911</v>
+        <v>0.014120000000000001</v>
       </c>
       <c r="AK18" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AL18" s="0">
-        <v>0.022579999999999999</v>
+        <v>0.015089999999999999</v>
       </c>
       <c r="AM18" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN18" s="0">
-        <v>0.033829999999999999</v>
+        <v>0.018519999999999998</v>
       </c>
       <c r="AO18" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AP18" s="0">
-        <v>0.14641999999999999</v>
+        <v>0.12887000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B19" s="0">
-        <v>0.14946999999999999</v>
+        <v>0.10969</v>
       </c>
       <c r="C19" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D19" s="0">
-        <v>0.18052000000000001</v>
+        <v>0.079409999999999995</v>
       </c>
       <c r="E19" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" s="0">
-        <v>0.15153</v>
+        <v>0.063549999999999995</v>
       </c>
       <c r="G19" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H19" s="0">
-        <v>0.14599000000000001</v>
+        <v>0.046420000000000003</v>
       </c>
       <c r="I19" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J19" s="0">
-        <v>0.16624</v>
+        <v>0.036979999999999999</v>
+      </c>
+      <c r="K19" s="0">
+        <v>3</v>
+      </c>
+      <c r="L19" s="0">
+        <v>0.024830000000000001</v>
       </c>
       <c r="M19" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N19" s="0">
-        <v>0.031289999999999998</v>
+        <v>0.020889999999999999</v>
       </c>
       <c r="O19" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P19" s="0">
-        <v>0.029839999999999998</v>
+        <v>0.019570000000000001</v>
       </c>
       <c r="Q19" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R19" s="0">
-        <v>0.024709999999999999</v>
+        <v>0.01787</v>
       </c>
       <c r="S19" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T19" s="0">
-        <v>0.02316</v>
+        <v>0.015559999999999999</v>
       </c>
       <c r="U19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V19" s="0">
-        <v>0.020379999999999999</v>
+        <v>0.01504</v>
       </c>
       <c r="W19" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X19" s="0">
-        <v>0.024340000000000001</v>
+        <v>0.014829999999999999</v>
       </c>
       <c r="Y19" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z19" s="0">
-        <v>0.022089999999999999</v>
+        <v>0.016140000000000002</v>
       </c>
       <c r="AA19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB19" s="0">
-        <v>0.020310000000000002</v>
+        <v>0.014789999999999999</v>
       </c>
       <c r="AC19" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.022780000000000002</v>
+        <v>0.01374</v>
       </c>
       <c r="AE19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF19" s="0">
-        <v>0.02104</v>
+        <v>0.01498</v>
       </c>
       <c r="AG19" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="0">
-        <v>0.021659999999999999</v>
+        <v>0.014239999999999999</v>
       </c>
       <c r="AI19" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ19" s="0">
-        <v>0.011010000000000001</v>
+        <v>0.01584</v>
       </c>
       <c r="AK19" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL19" s="0">
-        <v>0.0246</v>
+        <v>0.015730000000000001</v>
       </c>
       <c r="AM19" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AN19" s="0">
-        <v>0.036150000000000002</v>
+        <v>0.019390000000000001</v>
       </c>
       <c r="AO19" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AP19" s="0">
-        <v>0.15285000000000001</v>
+        <v>0.13184000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0">
-        <v>0.15614</v>
+        <v>0.11644</v>
       </c>
       <c r="C20" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D20" s="0">
-        <v>0.18825</v>
+        <v>0.089340000000000003</v>
       </c>
       <c r="E20" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" s="0">
-        <v>0.1595</v>
+        <v>0.069500000000000006</v>
       </c>
       <c r="G20" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H20" s="0">
-        <v>0.14585999999999999</v>
+        <v>0.049079999999999999</v>
       </c>
       <c r="I20" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J20" s="0">
-        <v>0.17505999999999999</v>
+        <v>0.040169999999999997</v>
+      </c>
+      <c r="K20" s="0">
+        <v>4</v>
+      </c>
+      <c r="L20" s="0">
+        <v>0.026519999999999999</v>
       </c>
       <c r="M20" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N20" s="0">
-        <v>0.03533</v>
+        <v>0.022610000000000002</v>
       </c>
       <c r="O20" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P20" s="0">
-        <v>0.033210000000000003</v>
+        <v>0.021489999999999999</v>
       </c>
       <c r="Q20" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R20" s="0">
-        <v>0.027310000000000001</v>
+        <v>0.019599999999999999</v>
       </c>
       <c r="S20" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T20" s="0">
-        <v>0.02545</v>
+        <v>0.016899999999999998</v>
       </c>
       <c r="U20" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V20" s="0">
-        <v>0.022419999999999999</v>
+        <v>0.016389999999999998</v>
       </c>
       <c r="W20" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X20" s="0">
-        <v>0.026839999999999999</v>
+        <v>0.01619</v>
       </c>
       <c r="Y20" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z20" s="0">
-        <v>0.024379999999999999</v>
+        <v>0.017729999999999999</v>
       </c>
       <c r="AA20" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB20" s="0">
-        <v>0.022259999999999999</v>
+        <v>0.016199999999999999</v>
       </c>
       <c r="AC20" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AD20" s="0">
-        <v>0.025260000000000001</v>
+        <v>0.014829999999999999</v>
       </c>
       <c r="AE20" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF20" s="0">
-        <v>0.02315</v>
+        <v>0.016379999999999999</v>
       </c>
       <c r="AG20" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH20" s="0">
-        <v>0.02383</v>
+        <v>0.015299999999999999</v>
       </c>
       <c r="AI20" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AJ20" s="0">
-        <v>0.013270000000000001</v>
+        <v>0.017250000000000001</v>
       </c>
       <c r="AK20" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL20" s="0">
-        <v>0.0269</v>
+        <v>0.016719999999999999</v>
       </c>
       <c r="AM20" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN20" s="0">
-        <v>0.040869999999999997</v>
+        <v>0.02077</v>
       </c>
       <c r="AO20" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AP20" s="0">
-        <v>0.16006000000000001</v>
+        <v>0.13571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" s="0">
-        <v>0.16209999999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="C21" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D21" s="0">
-        <v>0.19608</v>
+        <v>0.10602</v>
       </c>
       <c r="E21" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F21" s="0">
-        <v>0.16777</v>
+        <v>0.081979999999999997</v>
       </c>
       <c r="G21" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H21" s="0">
-        <v>0.15101999999999999</v>
+        <v>0.05323</v>
       </c>
       <c r="I21" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J21" s="0">
-        <v>0.18418000000000001</v>
+        <v>0.043810000000000002</v>
+      </c>
+      <c r="K21" s="0">
+        <v>5</v>
+      </c>
+      <c r="L21" s="0">
+        <v>0.028729999999999999</v>
       </c>
       <c r="M21" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N21" s="0">
-        <v>0.045929999999999999</v>
+        <v>0.024830000000000001</v>
       </c>
       <c r="O21" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P21" s="0">
-        <v>0.069320000000000007</v>
+        <v>0.023630000000000002</v>
       </c>
       <c r="Q21" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R21" s="0">
-        <v>0.029579999999999999</v>
+        <v>0.02155</v>
       </c>
       <c r="S21" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T21" s="0">
-        <v>0.027779999999999999</v>
+        <v>0.018499999999999999</v>
       </c>
       <c r="U21" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V21" s="0">
-        <v>0.024490000000000001</v>
+        <v>0.017950000000000001</v>
       </c>
       <c r="W21" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X21" s="0">
-        <v>0.029479999999999999</v>
+        <v>0.017760000000000001</v>
       </c>
       <c r="Y21" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z21" s="0">
-        <v>0.02683</v>
+        <v>0.01949</v>
       </c>
       <c r="AA21" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.024680000000000001</v>
+        <v>0.0178</v>
       </c>
       <c r="AC21" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.027980000000000001</v>
+        <v>0.016230000000000001</v>
       </c>
       <c r="AE21" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.02563</v>
+        <v>0.018020000000000001</v>
       </c>
       <c r="AG21" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AH21" s="0">
-        <v>0.026419999999999999</v>
+        <v>0.0167</v>
       </c>
       <c r="AI21" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0.02767</v>
+        <v>0.018929999999999999</v>
       </c>
       <c r="AK21" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="0">
-        <v>0.029659999999999999</v>
+        <v>0.01813</v>
       </c>
       <c r="AM21" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AN21" s="0">
-        <v>0.047919999999999997</v>
+        <v>0.022630000000000001</v>
       </c>
       <c r="AO21" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AP21" s="0">
-        <v>0.16803000000000001</v>
+        <v>0.14044000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="0">
-        <v>0.17002999999999999</v>
+        <v>0.13144</v>
       </c>
       <c r="C22" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D22" s="0">
-        <v>0.20401</v>
+        <v>0.11443</v>
       </c>
       <c r="E22" s="0">
         <v>12</v>
       </c>
       <c r="F22" s="0">
-        <v>0.18135999999999999</v>
+        <v>0.13675000000000001</v>
       </c>
       <c r="G22" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H22" s="0">
-        <v>0.15636</v>
+        <v>0.060589999999999998</v>
       </c>
       <c r="I22" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J22" s="0">
-        <v>0.19375000000000001</v>
+        <v>0.045949999999999998</v>
+      </c>
+      <c r="K22" s="0">
+        <v>6</v>
+      </c>
+      <c r="L22" s="0">
+        <v>0.031099999999999999</v>
       </c>
       <c r="M22" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N22" s="0">
-        <v>0.15101000000000001</v>
+        <v>0.027310000000000001</v>
       </c>
       <c r="O22" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P22" s="0">
-        <v>0.070449999999999999</v>
+        <v>0.025909999999999999</v>
       </c>
       <c r="Q22" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R22" s="0">
-        <v>0.0327</v>
+        <v>0.02368</v>
       </c>
       <c r="S22" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T22" s="0">
-        <v>0.030759999999999999</v>
+        <v>0.020330000000000001</v>
       </c>
       <c r="U22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V22" s="0">
-        <v>0.02707</v>
+        <v>0.019730000000000001</v>
       </c>
       <c r="W22" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="X22" s="0">
-        <v>0.033189999999999997</v>
+        <v>0.019550000000000001</v>
       </c>
       <c r="Y22" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z22" s="0">
-        <v>0.029780000000000001</v>
+        <v>0.021610000000000001</v>
       </c>
       <c r="AA22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="0">
-        <v>0.027279999999999999</v>
+        <v>0.019640000000000001</v>
       </c>
       <c r="AC22" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.031300000000000001</v>
+        <v>0.017860000000000001</v>
       </c>
       <c r="AE22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF22" s="0">
-        <v>0.028379999999999999</v>
+        <v>0.01985</v>
       </c>
       <c r="AG22" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AH22" s="0">
-        <v>0.02921</v>
+        <v>0.018360000000000001</v>
       </c>
       <c r="AI22" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AJ22" s="0">
-        <v>0.03065</v>
+        <v>0.020899999999999999</v>
       </c>
       <c r="AK22" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AL22" s="0">
-        <v>0.033300000000000003</v>
+        <v>0.019869999999999999</v>
       </c>
       <c r="AM22" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AN22" s="0">
-        <v>0.1051</v>
+        <v>0.024830000000000001</v>
       </c>
       <c r="AO22" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AP22" s="0">
-        <v>0.1767</v>
+        <v>0.14601</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" s="0">
-        <v>0.17848</v>
+        <v>0.1391</v>
+      </c>
+      <c r="C23" s="0">
+        <v>9</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.12584999999999999</v>
       </c>
       <c r="E23" s="0">
         <v>13</v>
       </c>
       <c r="F23" s="0">
-        <v>0.18737000000000001</v>
+        <v>0.14180000000000001</v>
       </c>
       <c r="G23" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H23" s="0">
-        <v>0.16191</v>
+        <v>0.081939999999999999</v>
+      </c>
+      <c r="I23" s="0">
+        <v>10</v>
+      </c>
+      <c r="J23" s="0">
+        <v>0.052749999999999998</v>
+      </c>
+      <c r="K23" s="0">
+        <v>7</v>
+      </c>
+      <c r="L23" s="0">
+        <v>0.034189999999999998</v>
       </c>
       <c r="M23" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N23" s="0">
-        <v>0.16117000000000001</v>
+        <v>0.02989</v>
       </c>
       <c r="O23" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P23" s="0">
-        <v>0.067129999999999995</v>
+        <v>0.028389999999999999</v>
       </c>
       <c r="Q23" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R23" s="0">
-        <v>0.036519999999999997</v>
+        <v>0.02605</v>
       </c>
       <c r="S23" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T23" s="0">
-        <v>0.03356</v>
+        <v>0.022380000000000001</v>
       </c>
       <c r="U23" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V23" s="0">
-        <v>0.02962</v>
+        <v>0.021749999999999999</v>
       </c>
       <c r="W23" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="X23" s="0">
-        <v>0.039370000000000002</v>
+        <v>0.02155</v>
       </c>
       <c r="Y23" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z23" s="0">
-        <v>0.033790000000000001</v>
+        <v>0.024049999999999999</v>
       </c>
       <c r="AA23" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AB23" s="0">
-        <v>0.0304</v>
+        <v>0.021749999999999999</v>
       </c>
       <c r="AC23" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AD23" s="0">
-        <v>0.037310000000000003</v>
+        <v>0.01968</v>
       </c>
       <c r="AE23" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF23" s="0">
-        <v>0.031879999999999999</v>
+        <v>0.022009999999999998</v>
       </c>
       <c r="AG23" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH23" s="0">
-        <v>0.033090000000000001</v>
+        <v>0.020250000000000001</v>
       </c>
       <c r="AI23" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ23" s="0">
-        <v>0.034909999999999997</v>
+        <v>0.023130000000000001</v>
       </c>
       <c r="AK23" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AL23" s="0">
-        <v>0.037990000000000003</v>
+        <v>0.021899999999999999</v>
       </c>
       <c r="AM23" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AN23" s="0">
-        <v>0.14043</v>
+        <v>0.027390000000000001</v>
       </c>
       <c r="AO23" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP23" s="0">
-        <v>0.18609999999999999</v>
+        <v>0.15240000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24" s="0">
-        <v>0.18723000000000001</v>
+        <v>0.14768000000000001</v>
+      </c>
+      <c r="C24" s="0">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.13364000000000001</v>
       </c>
       <c r="E24" s="0">
         <v>14</v>
       </c>
       <c r="F24" s="0">
-        <v>0.19400999999999999</v>
+        <v>0.15469</v>
       </c>
       <c r="G24" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" s="0">
-        <v>0.16764000000000001</v>
+        <v>0.14194999999999999</v>
+      </c>
+      <c r="I24" s="0">
+        <v>11</v>
+      </c>
+      <c r="J24" s="0">
+        <v>0.064829999999999999</v>
+      </c>
+      <c r="K24" s="0">
+        <v>8</v>
+      </c>
+      <c r="L24" s="0">
+        <v>0.037249999999999998</v>
       </c>
       <c r="M24" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N24" s="0">
-        <v>0.16969999999999999</v>
+        <v>0.032509999999999997</v>
+      </c>
+      <c r="O24" s="0">
+        <v>10</v>
+      </c>
+      <c r="P24" s="0">
+        <v>0.031320000000000001</v>
       </c>
       <c r="Q24" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R24" s="0">
-        <v>0.040230000000000002</v>
+        <v>0.028750000000000001</v>
       </c>
       <c r="S24" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T24" s="0">
-        <v>0.038350000000000002</v>
+        <v>0.024680000000000001</v>
       </c>
       <c r="U24" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V24" s="0">
-        <v>0.033140000000000003</v>
+        <v>0.024140000000000002</v>
       </c>
       <c r="W24" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X24" s="0">
-        <v>0.048640000000000003</v>
+        <v>0.024049999999999999</v>
       </c>
       <c r="Y24" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.041279999999999997</v>
+        <v>0.027050000000000001</v>
       </c>
       <c r="AA24" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB24" s="0">
-        <v>0.035470000000000002</v>
+        <v>0.024289999999999999</v>
       </c>
       <c r="AC24" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD24" s="0">
-        <v>0.046210000000000001</v>
+        <v>0.021850000000000001</v>
       </c>
       <c r="AE24" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF24" s="0">
-        <v>0.038120000000000001</v>
+        <v>0.02453</v>
       </c>
       <c r="AG24" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH24" s="0">
-        <v>0.03934</v>
+        <v>0.022440000000000002</v>
       </c>
       <c r="AI24" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AJ24" s="0">
-        <v>0.041020000000000001</v>
+        <v>0.025760000000000002</v>
       </c>
       <c r="AK24" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL24" s="0">
-        <v>0.043889999999999998</v>
+        <v>0.02426</v>
+      </c>
+      <c r="AM24" s="0">
+        <v>9</v>
+      </c>
+      <c r="AN24" s="0">
+        <v>0.030609999999999998</v>
       </c>
       <c r="AO24" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AP24" s="0">
-        <v>0.19620000000000001</v>
+        <v>0.15956999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B25" s="0">
-        <v>0.19639000000000001</v>
+        <v>0.15587999999999999</v>
+      </c>
+      <c r="C25" s="0">
+        <v>11</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.14391999999999999</v>
       </c>
       <c r="E25" s="0">
         <v>15</v>
       </c>
       <c r="F25" s="0">
-        <v>0.20111999999999999</v>
+        <v>0.16511999999999999</v>
+      </c>
+      <c r="G25" s="0">
+        <v>14</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.14885000000000001</v>
+      </c>
+      <c r="I25" s="0">
+        <v>12</v>
+      </c>
+      <c r="J25" s="0">
+        <v>0.067960000000000007</v>
+      </c>
+      <c r="K25" s="0">
+        <v>9</v>
+      </c>
+      <c r="L25" s="0">
+        <v>0.040559999999999999</v>
       </c>
       <c r="M25" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N25" s="0">
-        <v>0.17924999999999999</v>
+        <v>0.035740000000000001</v>
+      </c>
+      <c r="O25" s="0">
+        <v>11</v>
+      </c>
+      <c r="P25" s="0">
+        <v>0.03467</v>
       </c>
       <c r="Q25" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R25" s="0">
-        <v>0.046059999999999997</v>
+        <v>0.03236</v>
       </c>
       <c r="S25" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T25" s="0">
-        <v>0.044749999999999998</v>
+        <v>0.027609999999999999</v>
       </c>
       <c r="U25" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V25" s="0">
-        <v>0.038089999999999999</v>
+        <v>0.026970000000000001</v>
       </c>
       <c r="W25" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X25" s="0">
-        <v>0.05951</v>
+        <v>0.026880000000000001</v>
       </c>
       <c r="Y25" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.051180000000000003</v>
+        <v>0.031009999999999999</v>
       </c>
       <c r="AA25" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB25" s="0">
-        <v>0.043560000000000001</v>
+        <v>0.02741</v>
       </c>
       <c r="AC25" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD25" s="0">
-        <v>0.05654</v>
+        <v>0.024340000000000001</v>
       </c>
       <c r="AE25" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF25" s="0">
-        <v>0.047030000000000002</v>
+        <v>0.02777</v>
       </c>
       <c r="AG25" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH25" s="0">
-        <v>0.047980000000000002</v>
+        <v>0.024969999999999999</v>
       </c>
       <c r="AI25" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ25" s="0">
-        <v>0.049270000000000001</v>
+        <v>0.02929</v>
       </c>
       <c r="AK25" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AL25" s="0">
-        <v>0.052429999999999997</v>
+        <v>0.027029999999999999</v>
+      </c>
+      <c r="AM25" s="0">
+        <v>10</v>
+      </c>
+      <c r="AN25" s="0">
+        <v>0.03499</v>
       </c>
       <c r="AO25" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP25" s="0">
-        <v>0.20691999999999999</v>
+        <v>0.16749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="0">
-        <v>0.20585999999999999</v>
+        <v>0.17718999999999999</v>
+      </c>
+      <c r="C26" s="0">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.15240999999999999</v>
+      </c>
+      <c r="E26" s="0">
+        <v>17</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.17931</v>
+      </c>
+      <c r="G26" s="0">
+        <v>15</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.15901000000000001</v>
+      </c>
+      <c r="I26" s="0">
+        <v>15</v>
+      </c>
+      <c r="J26" s="0">
+        <v>0.15262000000000001</v>
+      </c>
+      <c r="K26" s="0">
+        <v>10</v>
+      </c>
+      <c r="L26" s="0">
+        <v>0.04351</v>
+      </c>
+      <c r="M26" s="0">
+        <v>11</v>
+      </c>
+      <c r="N26" s="0">
+        <v>0.039620000000000002</v>
+      </c>
+      <c r="O26" s="0">
+        <v>12</v>
+      </c>
+      <c r="P26" s="0">
+        <v>0.038719999999999998</v>
       </c>
       <c r="Q26" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R26" s="0">
-        <v>0.052510000000000001</v>
+        <v>0.036650000000000002</v>
       </c>
       <c r="S26" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T26" s="0">
-        <v>0.054100000000000002</v>
+        <v>0.031040000000000002</v>
       </c>
       <c r="U26" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="V26" s="0">
-        <v>0.046330000000000003</v>
+        <v>0.030509999999999999</v>
+      </c>
+      <c r="W26" s="0">
+        <v>11</v>
+      </c>
+      <c r="X26" s="0">
+        <v>0.030599999999999999</v>
       </c>
       <c r="Y26" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z26" s="0">
-        <v>0.061780000000000002</v>
+        <v>0.036729999999999999</v>
       </c>
       <c r="AA26" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.053870000000000001</v>
+        <v>0.031730000000000001</v>
       </c>
       <c r="AC26" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD26" s="0">
-        <v>0.068690000000000001</v>
+        <v>0.027519999999999999</v>
       </c>
       <c r="AE26" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF26" s="0">
-        <v>0.057029999999999997</v>
+        <v>0.032590000000000001</v>
       </c>
       <c r="AG26" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AH26" s="0">
-        <v>0.05808</v>
+        <v>0.02835</v>
       </c>
       <c r="AI26" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AJ26" s="0">
-        <v>0.061199999999999997</v>
+        <v>0.034799999999999998</v>
       </c>
       <c r="AK26" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AL26" s="0">
-        <v>0.064149999999999999</v>
+        <v>0.03082</v>
+      </c>
+      <c r="AM26" s="0">
+        <v>11</v>
+      </c>
+      <c r="AN26" s="0">
+        <v>0.041579999999999999</v>
       </c>
       <c r="AO26" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AP26" s="0">
-        <v>0.21823000000000001</v>
+        <v>0.17612</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
+        <v>13</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.18237</v>
+      </c>
+      <c r="C27" s="0">
+        <v>13</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.16145999999999999</v>
+      </c>
+      <c r="E27" s="0">
+        <v>18</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.18848999999999999</v>
+      </c>
+      <c r="G27" s="0">
+        <v>16</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.16991000000000001</v>
+      </c>
+      <c r="I27" s="0">
+        <v>17</v>
+      </c>
+      <c r="J27" s="0">
+        <v>0.17266000000000001</v>
+      </c>
+      <c r="K27" s="0">
+        <v>11</v>
+      </c>
+      <c r="L27" s="0">
+        <v>0.049329999999999999</v>
+      </c>
+      <c r="M27" s="0">
+        <v>12</v>
+      </c>
+      <c r="N27" s="0">
+        <v>0.04292</v>
+      </c>
+      <c r="O27" s="0">
+        <v>13</v>
+      </c>
+      <c r="P27" s="0">
+        <v>0.044499999999999998</v>
+      </c>
+      <c r="Q27" s="0">
+        <v>13</v>
+      </c>
+      <c r="R27" s="0">
+        <v>0.042209999999999998</v>
+      </c>
+      <c r="S27" s="0">
+        <v>12</v>
+      </c>
+      <c r="T27" s="0">
+        <v>0.035479999999999998</v>
+      </c>
+      <c r="U27" s="0">
+        <v>12</v>
+      </c>
+      <c r="V27" s="0">
+        <v>0.035270000000000003</v>
+      </c>
+      <c r="W27" s="0">
+        <v>12</v>
+      </c>
+      <c r="X27" s="0">
+        <v>0.035790000000000002</v>
+      </c>
+      <c r="Y27" s="0">
+        <v>13</v>
+      </c>
+      <c r="Z27" s="0">
+        <v>0.046089999999999999</v>
+      </c>
+      <c r="AA27" s="0">
+        <v>12</v>
+      </c>
+      <c r="AB27" s="0">
+        <v>0.038390000000000001</v>
+      </c>
+      <c r="AC27" s="0">
+        <v>11</v>
+      </c>
+      <c r="AD27" s="0">
+        <v>0.03211</v>
+      </c>
+      <c r="AE27" s="0">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="0">
+        <v>0.040489999999999998</v>
+      </c>
+      <c r="AG27" s="0">
+        <v>11</v>
+      </c>
+      <c r="AH27" s="0">
+        <v>0.033419999999999998</v>
+      </c>
+      <c r="AI27" s="0">
+        <v>12</v>
+      </c>
+      <c r="AJ27" s="0">
+        <v>0.043659999999999998</v>
+      </c>
+      <c r="AK27" s="0">
+        <v>11</v>
+      </c>
+      <c r="AL27" s="0">
+        <v>0.036749999999999998</v>
+      </c>
+      <c r="AM27" s="0">
+        <v>12</v>
+      </c>
+      <c r="AN27" s="0">
+        <v>0.050790000000000002</v>
+      </c>
+      <c r="AO27" s="0">
+        <v>11</v>
+      </c>
+      <c r="AP27" s="0">
+        <v>0.18545</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>14</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.19170999999999999</v>
+      </c>
+      <c r="C28" s="0">
+        <v>14</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.16994999999999999</v>
+      </c>
+      <c r="G28" s="0">
+        <v>17</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.17967</v>
+      </c>
+      <c r="I28" s="0">
+        <v>18</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0.18107999999999999</v>
+      </c>
+      <c r="K28" s="0">
+        <v>12</v>
+      </c>
+      <c r="L28" s="0">
+        <v>0.057349999999999998</v>
+      </c>
+      <c r="M28" s="0">
+        <v>13</v>
+      </c>
+      <c r="N28" s="0">
+        <v>0.0499</v>
+      </c>
+      <c r="O28" s="0">
+        <v>14</v>
+      </c>
+      <c r="P28" s="0">
+        <v>0.051520000000000003</v>
+      </c>
+      <c r="Q28" s="0">
+        <v>14</v>
+      </c>
+      <c r="R28" s="0">
+        <v>0.049489999999999999</v>
+      </c>
+      <c r="S28" s="0">
+        <v>13</v>
+      </c>
+      <c r="T28" s="0">
+        <v>0.041480000000000003</v>
+      </c>
+      <c r="U28" s="0">
+        <v>13</v>
+      </c>
+      <c r="V28" s="0">
+        <v>0.042139999999999997</v>
+      </c>
+      <c r="W28" s="0">
+        <v>13</v>
+      </c>
+      <c r="X28" s="0">
+        <v>0.04369</v>
+      </c>
+      <c r="Y28" s="0">
+        <v>14</v>
+      </c>
+      <c r="Z28" s="0">
+        <v>0.058840000000000003</v>
+      </c>
+      <c r="AA28" s="0">
+        <v>13</v>
+      </c>
+      <c r="AB28" s="0">
+        <v>0.048930000000000001</v>
+      </c>
+      <c r="AC28" s="0">
+        <v>12</v>
+      </c>
+      <c r="AD28" s="0">
+        <v>0.039480000000000001</v>
+      </c>
+      <c r="AE28" s="0">
+        <v>13</v>
+      </c>
+      <c r="AF28" s="0">
+        <v>0.051889999999999999</v>
+      </c>
+      <c r="AG28" s="0">
+        <v>12</v>
+      </c>
+      <c r="AH28" s="0">
+        <v>0.041880000000000001</v>
+      </c>
+      <c r="AI28" s="0">
+        <v>13</v>
+      </c>
+      <c r="AJ28" s="0">
+        <v>0.055469999999999999</v>
+      </c>
+      <c r="AK28" s="0">
+        <v>12</v>
+      </c>
+      <c r="AL28" s="0">
+        <v>0.045839999999999999</v>
+      </c>
+      <c r="AM28" s="0">
+        <v>13</v>
+      </c>
+      <c r="AN28" s="0">
+        <v>0.063060000000000005</v>
+      </c>
+      <c r="AO28" s="0">
+        <v>12</v>
+      </c>
+      <c r="AP28" s="0">
+        <v>0.19547999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
         <v>15</v>
       </c>
-      <c r="B27" s="0">
-        <v>0.21578</v>
-      </c>
-      <c r="U27" s="0">
+      <c r="B29" s="0">
+        <v>0.20104</v>
+      </c>
+      <c r="C29" s="0">
         <v>15</v>
       </c>
-      <c r="V27" s="0">
-        <v>0.05731</v>
-      </c>
-      <c r="AA27" s="0">
+      <c r="D29" s="0">
+        <v>0.17777000000000001</v>
+      </c>
+      <c r="G29" s="0">
+        <v>18</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.18848000000000001</v>
+      </c>
+      <c r="K29" s="0">
+        <v>13</v>
+      </c>
+      <c r="L29" s="0">
+        <v>0.063810000000000006</v>
+      </c>
+      <c r="M29" s="0">
+        <v>14</v>
+      </c>
+      <c r="N29" s="0">
+        <v>0.059560000000000002</v>
+      </c>
+      <c r="O29" s="0">
         <v>15</v>
       </c>
-      <c r="AB27" s="0">
-        <v>0.064860000000000001</v>
-      </c>
-      <c r="AE27" s="0">
+      <c r="P29" s="0">
+        <v>0.06148</v>
+      </c>
+      <c r="Q29" s="0">
         <v>15</v>
       </c>
-      <c r="AF27" s="0">
-        <v>0.070309999999999997</v>
-      </c>
-      <c r="AG27" s="0">
+      <c r="R29" s="0">
+        <v>0.06019</v>
+      </c>
+      <c r="S29" s="0">
+        <v>14</v>
+      </c>
+      <c r="T29" s="0">
+        <v>0.050139999999999997</v>
+      </c>
+      <c r="U29" s="0">
+        <v>14</v>
+      </c>
+      <c r="V29" s="0">
+        <v>0.052789999999999997</v>
+      </c>
+      <c r="W29" s="0">
+        <v>14</v>
+      </c>
+      <c r="X29" s="0">
+        <v>0.05577</v>
+      </c>
+      <c r="Y29" s="0">
         <v>15</v>
       </c>
-      <c r="AH27" s="0">
-        <v>0.07288</v>
-      </c>
-      <c r="AI27" s="0">
+      <c r="Z29" s="0">
+        <v>0.073880000000000001</v>
+      </c>
+      <c r="AA29" s="0">
+        <v>14</v>
+      </c>
+      <c r="AB29" s="0">
+        <v>0.062219999999999998</v>
+      </c>
+      <c r="AC29" s="0">
+        <v>13</v>
+      </c>
+      <c r="AD29" s="0">
+        <v>0.050569999999999997</v>
+      </c>
+      <c r="AE29" s="0">
+        <v>14</v>
+      </c>
+      <c r="AF29" s="0">
+        <v>0.065299999999999997</v>
+      </c>
+      <c r="AG29" s="0">
+        <v>13</v>
+      </c>
+      <c r="AH29" s="0">
+        <v>0.0533</v>
+      </c>
+      <c r="AI29" s="0">
+        <v>14</v>
+      </c>
+      <c r="AJ29" s="0">
+        <v>0.069779999999999995</v>
+      </c>
+      <c r="AK29" s="0">
+        <v>13</v>
+      </c>
+      <c r="AL29" s="0">
+        <v>0.05815</v>
+      </c>
+      <c r="AM29" s="0">
+        <v>14</v>
+      </c>
+      <c r="AN29" s="0">
+        <v>0.079289999999999999</v>
+      </c>
+      <c r="AO29" s="0">
+        <v>13</v>
+      </c>
+      <c r="AP29" s="0">
+        <v>0.20613000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>16</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.20609</v>
+      </c>
+      <c r="C30" s="0">
+        <v>16</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.18639</v>
+      </c>
+      <c r="K30" s="0">
+        <v>14</v>
+      </c>
+      <c r="L30" s="0">
+        <v>0.089660000000000004</v>
+      </c>
+      <c r="M30" s="0">
         <v>15</v>
       </c>
-      <c r="AJ27" s="0">
-        <v>0.076539999999999997</v>
-      </c>
-      <c r="AK27" s="0">
+      <c r="N30" s="0">
+        <v>0.075660000000000005</v>
+      </c>
+      <c r="O30" s="0">
+        <v>16</v>
+      </c>
+      <c r="P30" s="0">
+        <v>0.076359999999999997</v>
+      </c>
+      <c r="Q30" s="0">
+        <v>16</v>
+      </c>
+      <c r="R30" s="0">
+        <v>0.074440000000000006</v>
+      </c>
+      <c r="S30" s="0">
         <v>15</v>
       </c>
-      <c r="AL27" s="0">
-        <v>0.080909999999999996</v>
-      </c>
-      <c r="AO27" s="0">
+      <c r="T30" s="0">
+        <v>0.06293</v>
+      </c>
+      <c r="U30" s="0">
         <v>15</v>
       </c>
-      <c r="AP27" s="0">
-        <v>0.23007</v>
+      <c r="V30" s="0">
+        <v>0.067229999999999998</v>
+      </c>
+      <c r="W30" s="0">
+        <v>15</v>
+      </c>
+      <c r="X30" s="0">
+        <v>0.070499999999999993</v>
+      </c>
+      <c r="Y30" s="0">
+        <v>16</v>
+      </c>
+      <c r="Z30" s="0">
+        <v>0.090359999999999996</v>
+      </c>
+      <c r="AA30" s="0">
+        <v>15</v>
+      </c>
+      <c r="AB30" s="0">
+        <v>0.077890000000000001</v>
+      </c>
+      <c r="AC30" s="0">
+        <v>14</v>
+      </c>
+      <c r="AD30" s="0">
+        <v>0.063930000000000001</v>
+      </c>
+      <c r="AE30" s="0">
+        <v>15</v>
+      </c>
+      <c r="AF30" s="0">
+        <v>0.081049999999999997</v>
+      </c>
+      <c r="AG30" s="0">
+        <v>14</v>
+      </c>
+      <c r="AH30" s="0">
+        <v>0.067349999999999993</v>
+      </c>
+      <c r="AI30" s="0">
+        <v>15</v>
+      </c>
+      <c r="AJ30" s="0">
+        <v>0.087169999999999998</v>
+      </c>
+      <c r="AK30" s="0">
+        <v>14</v>
+      </c>
+      <c r="AL30" s="0">
+        <v>0.073289999999999994</v>
+      </c>
+      <c r="AM30" s="0">
+        <v>15</v>
+      </c>
+      <c r="AN30" s="0">
+        <v>0.099589999999999998</v>
+      </c>
+      <c r="AO30" s="0">
+        <v>14</v>
+      </c>
+      <c r="AP30" s="0">
+        <v>0.21734999999999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>17</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.21289</v>
+      </c>
+      <c r="C31" s="0">
+        <v>17</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.19420999999999999</v>
+      </c>
+      <c r="K31" s="0">
+        <v>16</v>
+      </c>
+      <c r="L31" s="0">
+        <v>0.15104999999999999</v>
+      </c>
+      <c r="M31" s="0">
+        <v>16</v>
+      </c>
+      <c r="N31" s="0">
+        <v>0.11996</v>
+      </c>
+      <c r="O31" s="0">
+        <v>17</v>
+      </c>
+      <c r="P31" s="0">
+        <v>0.096570000000000003</v>
+      </c>
+      <c r="Q31" s="0">
+        <v>17</v>
+      </c>
+      <c r="R31" s="0">
+        <v>0.092670000000000002</v>
+      </c>
+      <c r="S31" s="0">
+        <v>16</v>
+      </c>
+      <c r="T31" s="0">
+        <v>0.079339999999999994</v>
+      </c>
+      <c r="U31" s="0">
+        <v>16</v>
+      </c>
+      <c r="V31" s="0">
+        <v>0.083320000000000005</v>
+      </c>
+      <c r="W31" s="0">
+        <v>16</v>
+      </c>
+      <c r="X31" s="0">
+        <v>0.086470000000000005</v>
+      </c>
+      <c r="Y31" s="0">
+        <v>17</v>
+      </c>
+      <c r="Z31" s="0">
+        <v>0.10748000000000001</v>
+      </c>
+      <c r="AA31" s="0">
+        <v>16</v>
+      </c>
+      <c r="AB31" s="0">
+        <v>0.094799999999999995</v>
+      </c>
+      <c r="AC31" s="0">
+        <v>15</v>
+      </c>
+      <c r="AD31" s="0">
+        <v>0.079579999999999998</v>
+      </c>
+      <c r="AE31" s="0">
+        <v>16</v>
+      </c>
+      <c r="AF31" s="0">
+        <v>0.099129999999999996</v>
+      </c>
+      <c r="AG31" s="0">
+        <v>15</v>
+      </c>
+      <c r="AH31" s="0">
+        <v>0.083680000000000004</v>
+      </c>
+      <c r="AI31" s="0">
+        <v>16</v>
+      </c>
+      <c r="AJ31" s="0">
+        <v>0.10772</v>
+      </c>
+      <c r="AK31" s="0">
+        <v>15</v>
+      </c>
+      <c r="AL31" s="0">
+        <v>0.091980000000000006</v>
+      </c>
+      <c r="AM31" s="0">
+        <v>16</v>
+      </c>
+      <c r="AN31" s="0">
+        <v>0.12205000000000001</v>
+      </c>
+      <c r="AO31" s="0">
+        <v>15</v>
+      </c>
+      <c r="AP31" s="0">
+        <v>0.22908999999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>18</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.2203</v>
+      </c>
+      <c r="C32" s="0">
+        <v>18</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.20147999999999999</v>
+      </c>
+      <c r="K32" s="0">
+        <v>17</v>
+      </c>
+      <c r="L32" s="0">
+        <v>0.16022</v>
+      </c>
+      <c r="O32" s="0">
+        <v>18</v>
+      </c>
+      <c r="P32" s="0">
+        <v>0.11945</v>
+      </c>
+      <c r="Q32" s="0">
+        <v>18</v>
+      </c>
+      <c r="R32" s="0">
+        <v>0.11131000000000001</v>
+      </c>
+      <c r="S32" s="0">
+        <v>17</v>
+      </c>
+      <c r="T32" s="0">
+        <v>0.097070000000000004</v>
+      </c>
+      <c r="U32" s="0">
+        <v>17</v>
+      </c>
+      <c r="V32" s="0">
+        <v>0.10015</v>
+      </c>
+      <c r="W32" s="0">
+        <v>17</v>
+      </c>
+      <c r="X32" s="0">
+        <v>0.10360999999999999</v>
+      </c>
+      <c r="Y32" s="0">
+        <v>18</v>
+      </c>
+      <c r="Z32" s="0">
+        <v>0.12543000000000001</v>
+      </c>
+      <c r="AA32" s="0">
+        <v>17</v>
+      </c>
+      <c r="AB32" s="0">
+        <v>0.11255999999999999</v>
+      </c>
+      <c r="AC32" s="0">
+        <v>16</v>
+      </c>
+      <c r="AD32" s="0">
+        <v>0.096750000000000003</v>
+      </c>
+      <c r="AE32" s="0">
+        <v>17</v>
+      </c>
+      <c r="AF32" s="0">
+        <v>0.11940000000000001</v>
+      </c>
+      <c r="AG32" s="0">
+        <v>16</v>
+      </c>
+      <c r="AH32" s="0">
+        <v>0.10245</v>
+      </c>
+      <c r="AI32" s="0">
+        <v>17</v>
+      </c>
+      <c r="AJ32" s="0">
+        <v>0.13003999999999999</v>
+      </c>
+      <c r="AK32" s="0">
+        <v>16</v>
+      </c>
+      <c r="AL32" s="0">
+        <v>0.1138</v>
+      </c>
+      <c r="AM32" s="0">
+        <v>17</v>
+      </c>
+      <c r="AN32" s="0">
+        <v>0.15124000000000001</v>
+      </c>
+      <c r="AO32" s="0">
+        <v>16</v>
+      </c>
+      <c r="AP32" s="0">
+        <v>0.24132000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="K33" s="0">
+        <v>18</v>
+      </c>
+      <c r="L33" s="0">
+        <v>0.16782</v>
+      </c>
+      <c r="S33" s="0">
+        <v>18</v>
+      </c>
+      <c r="T33" s="0">
+        <v>0.11402</v>
+      </c>
+      <c r="U33" s="0">
+        <v>18</v>
+      </c>
+      <c r="V33" s="0">
+        <v>0.11718000000000001</v>
+      </c>
+      <c r="W33" s="0">
+        <v>18</v>
+      </c>
+      <c r="X33" s="0">
+        <v>0.12082</v>
+      </c>
+      <c r="AA33" s="0">
+        <v>18</v>
+      </c>
+      <c r="AB33" s="0">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="AC33" s="0">
+        <v>17</v>
+      </c>
+      <c r="AD33" s="0">
+        <v>0.11577999999999999</v>
+      </c>
+      <c r="AE33" s="0">
+        <v>18</v>
+      </c>
+      <c r="AF33" s="0">
+        <v>0.14129</v>
+      </c>
+      <c r="AG33" s="0">
+        <v>17</v>
+      </c>
+      <c r="AH33" s="0">
+        <v>0.1242</v>
+      </c>
+      <c r="AI33" s="0">
+        <v>18</v>
+      </c>
+      <c r="AJ33" s="0">
+        <v>0.15379000000000001</v>
+      </c>
+      <c r="AK33" s="0">
+        <v>17</v>
+      </c>
+      <c r="AL33" s="0">
+        <v>0.1368</v>
+      </c>
+      <c r="AM33" s="0">
+        <v>18</v>
+      </c>
+      <c r="AN33" s="0">
+        <v>0.18006</v>
+      </c>
+      <c r="AO33" s="0">
+        <v>17</v>
+      </c>
+      <c r="AP33" s="0">
+        <v>0.25397999999999998</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="AC34" s="0">
+        <v>18</v>
+      </c>
+      <c r="AD34" s="0">
+        <v>0.13647999999999999</v>
+      </c>
+      <c r="AG34" s="0">
+        <v>18</v>
+      </c>
+      <c r="AH34" s="0">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AK34" s="0">
+        <v>18</v>
+      </c>
+      <c r="AL34" s="0">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="AO34" s="0">
+        <v>18</v>
+      </c>
+      <c r="AP34" s="0">
+        <v>0.26704</v>
       </c>
     </row>
   </sheetData>
